--- a/Deliverable 2/Deliverable2/Sequence of Activities.xlsx
+++ b/Deliverable 2/Deliverable2/Sequence of Activities.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Santi/Documents/GitHub/projectsGroup3/Deliverable 2/Deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9ED40504-1370-D34E-B908-560D80348455}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{66E103DB-9A24-D149-BB2A-C116D491E2D6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="10000" windowHeight="14440" xr2:uid="{E0477111-61C5-8B47-8417-7A5EDA71FCFA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{E0477111-61C5-8B47-8417-7A5EDA71FCFA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="PRECEDENCES" sheetId="2" r:id="rId1"/>
+    <sheet name="CHRONOGRAM" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
   <si>
     <t>TASK LIST</t>
   </si>
@@ -99,9 +100,6 @@
     <t>Financial Plan</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3. </t>
-  </si>
-  <si>
     <t>Documentation Management</t>
   </si>
   <si>
@@ -117,9 +115,6 @@
     <t>State of the Art</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1. </t>
-  </si>
-  <si>
     <t>Payloads</t>
   </si>
   <si>
@@ -198,9 +193,6 @@
     <t>Technology demonstrator prototype manufacturing</t>
   </si>
   <si>
-    <t>5.</t>
-  </si>
-  <si>
     <t>5.2.</t>
   </si>
   <si>
@@ -276,20 +268,41 @@
     <t>PRECEDING TASKS</t>
   </si>
   <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>0.</t>
+    <t>3.1., 3.2., 3.3.</t>
+  </si>
+  <si>
+    <t>4.1.</t>
+  </si>
+  <si>
+    <t>4.2.</t>
+  </si>
+  <si>
+    <t>5.2., 5.3., 5.4.</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>1.1., 2.2.</t>
+  </si>
+  <si>
+    <t>2.1.1.</t>
+  </si>
+  <si>
+    <t>INCORRECT DURATION OF TASKS</t>
+  </si>
+  <si>
+    <t>2.3.</t>
+  </si>
+  <si>
+    <t>3.1.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -305,16 +318,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -322,11 +361,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -335,6 +411,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,25 +747,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0480099E-7AA1-4C48-9305-3E6F087E5767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C13133-E9F5-7F4D-B8A9-22BBBCD097C8}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>82</v>
+      <c r="C1" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -676,25 +778,26 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -703,6 +806,9 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -711,21 +817,28 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -735,17 +848,16 @@
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -754,6 +866,9 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -762,139 +877,176 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
-        <v>27</v>
+      <c r="C15" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
+      <c r="C19" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -902,58 +1054,74 @@
         <v>5</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="C31" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C32" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B33" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C33" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B34" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C34" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B35" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>67</v>
+      <c r="C35" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -961,26 +1129,30 @@
         <v>6</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="B38" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" t="s">
-        <v>72</v>
+      <c r="C38" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -988,45 +1160,1276 @@
         <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D116D-5F6B-744E-AD43-E5D026DA201F}">
+  <dimension ref="A1:BC43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="137" width="2.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="7"/>
+      <c r="AW16" s="7"/>
+      <c r="AX16" s="7"/>
+      <c r="AY16" s="7"/>
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="7"/>
+      <c r="BC16" s="7"/>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="7"/>
+      <c r="BC20" s="7"/>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="7"/>
+      <c r="AS29" s="7"/>
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="7"/>
+      <c r="AW29" s="7"/>
+      <c r="AX29" s="7"/>
+      <c r="AY29" s="7"/>
+      <c r="AZ29" s="7"/>
+      <c r="BA29" s="7"/>
+      <c r="BB29" s="7"/>
+      <c r="BC29" s="7"/>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+    </row>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+    </row>
+    <row r="35" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+    </row>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>6</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+      <c r="AP36" s="7"/>
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="7"/>
+      <c r="AS36" s="7"/>
+      <c r="AT36" s="7"/>
+      <c r="AU36" s="7"/>
+      <c r="AV36" s="7"/>
+      <c r="AW36" s="7"/>
+      <c r="AX36" s="7"/>
+      <c r="AY36" s="7"/>
+      <c r="AZ36" s="7"/>
+      <c r="BA36" s="7"/>
+      <c r="BB36" s="7"/>
+      <c r="BC36" s="7"/>
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="5"/>
+      <c r="AS37" s="5"/>
+      <c r="AT37" s="5"/>
+    </row>
+    <row r="38" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="5"/>
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="7"/>
+      <c r="AQ39" s="7"/>
+      <c r="AR39" s="7"/>
+      <c r="AS39" s="7"/>
+      <c r="AT39" s="7"/>
+      <c r="AU39" s="7"/>
+      <c r="AV39" s="7"/>
+      <c r="AW39" s="7"/>
+      <c r="AX39" s="7"/>
+      <c r="AY39" s="7"/>
+      <c r="AZ39" s="7"/>
+      <c r="BA39" s="7"/>
+      <c r="BB39" s="7"/>
+      <c r="BC39" s="7"/>
+    </row>
+    <row r="40" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+    </row>
+    <row r="41" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B40" t="s">
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+    </row>
+    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="B42" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B41" t="s">
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
+      <c r="AS42" s="5"/>
+      <c r="AT42" s="5"/>
+    </row>
+    <row r="43" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="B43" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="5"/>
+      <c r="AT43" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Deliverable 2/Deliverable2/Sequence of Activities.xlsx
+++ b/Deliverable 2/Deliverable2/Sequence of Activities.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Santi/Documents/GitHub/projectsGroup3/Deliverable 2/Deliverable2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odnan\Documents\GitHub\projectsGroup3\Deliverable 2\Deliverable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{66E103DB-9A24-D149-BB2A-C116D491E2D6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{E0477111-61C5-8B47-8417-7A5EDA71FCFA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="16002" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRECEDENCES" sheetId="2" r:id="rId1"/>
     <sheet name="CHRONOGRAM" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -301,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -353,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -385,24 +384,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -421,19 +407,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,23 +730,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C13133-E9F5-7F4D-B8A9-22BBBCD097C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.84765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.84765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -771,7 +754,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -779,8 +762,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -790,8 +773,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -799,7 +782,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -821,8 +804,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -830,8 +813,8 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -841,7 +824,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -850,8 +833,8 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -859,7 +842,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -870,7 +853,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -881,8 +864,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -892,8 +875,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A14" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -903,8 +886,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -914,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -923,8 +906,8 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A17" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -934,8 +917,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -945,8 +928,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -956,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -965,8 +948,8 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -974,7 +957,7 @@
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -985,7 +968,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -996,7 +979,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -1007,8 +990,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A25" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1016,7 +999,7 @@
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -1027,7 +1010,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -1038,7 +1021,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -1049,7 +1032,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="2">
         <v>5</v>
       </c>
@@ -1058,8 +1041,8 @@
       </c>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A30" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -1069,8 +1052,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A31" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1080,8 +1063,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A32" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -1091,8 +1074,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A33" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -1102,8 +1085,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A34" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -1113,8 +1096,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A35" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1124,7 +1107,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A36" s="2">
         <v>6</v>
       </c>
@@ -1133,8 +1116,8 @@
       </c>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A37" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -1144,8 +1127,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A38" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -1155,7 +1138,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A39" s="2">
         <v>7</v>
       </c>
@@ -1164,8 +1147,8 @@
       </c>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -1175,8 +1158,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A41" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -1186,8 +1169,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A42" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -1197,8 +1180,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -1215,30 +1198,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D116D-5F6B-744E-AD43-E5D026DA201F}">
-  <dimension ref="A1:BC43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BB43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="137" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="43.94921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="136" width="2.84765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1246,83 +1232,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="14"/>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1373,15 +1360,15 @@
       <c r="AZ5" s="5"/>
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1432,23 +1419,23 @@
       <c r="AZ6" s="5"/>
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1496,15 +1483,15 @@
       <c r="AZ8" s="5"/>
       <c r="BA8" s="5"/>
       <c r="BB8" s="5"/>
-      <c r="BC8" s="5"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1555,34 +1542,34 @@
       <c r="AZ9" s="7"/>
       <c r="BA9" s="7"/>
       <c r="BB9" s="7"/>
-      <c r="BC9" s="7"/>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
+      <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -1621,26 +1608,26 @@
       <c r="AZ12" s="5"/>
       <c r="BA12" s="5"/>
       <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A14" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1691,15 +1678,15 @@
       <c r="AZ14" s="5"/>
       <c r="BA14" s="5"/>
       <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1750,15 +1737,15 @@
       <c r="AZ15" s="5"/>
       <c r="BA15" s="5"/>
       <c r="BB15" s="5"/>
-      <c r="BC15" s="5"/>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1809,48 +1796,48 @@
       <c r="AZ16" s="7"/>
       <c r="BA16" s="7"/>
       <c r="BB16" s="7"/>
-      <c r="BC16" s="7"/>
-    </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A17" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1901,97 +1888,97 @@
       <c r="AZ20" s="7"/>
       <c r="BA20" s="7"/>
       <c r="BB20" s="7"/>
-      <c r="BC20" s="7"/>
-    </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
+      <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A25" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
+      <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-    </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
       </c>
+      <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-    </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
+      <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-    </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A29" s="2">
         <v>5</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -2042,81 +2029,81 @@
       <c r="AZ29" s="7"/>
       <c r="BA29" s="7"/>
       <c r="BB29" s="7"/>
-      <c r="BC29" s="7"/>
-    </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A30" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-    </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A31" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-    </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A32" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-    </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+    </row>
+    <row r="33" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A33" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-    </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A34" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-    </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+    </row>
+    <row r="35" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A35" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-    </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A36" s="2">
         <v>6</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -2167,15 +2154,15 @@
       <c r="AZ36" s="7"/>
       <c r="BA36" s="7"/>
       <c r="BB36" s="7"/>
-      <c r="BC36" s="7"/>
-    </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+    </row>
+    <row r="37" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A37" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>67</v>
       </c>
+      <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
@@ -2202,15 +2189,15 @@
       <c r="AQ37" s="5"/>
       <c r="AR37" s="5"/>
       <c r="AS37" s="5"/>
-      <c r="AT37" s="5"/>
-    </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A38" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
@@ -2225,15 +2212,15 @@
       <c r="AQ38" s="5"/>
       <c r="AR38" s="5"/>
       <c r="AS38" s="5"/>
-      <c r="AT38" s="5"/>
-    </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.6">
       <c r="A39" s="2">
         <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -2284,15 +2271,15 @@
       <c r="AZ39" s="7"/>
       <c r="BA39" s="7"/>
       <c r="BB39" s="7"/>
-      <c r="BC39" s="7"/>
-    </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>72</v>
       </c>
+      <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
@@ -2319,15 +2306,15 @@
       <c r="AQ40" s="5"/>
       <c r="AR40" s="5"/>
       <c r="AS40" s="5"/>
-      <c r="AT40" s="5"/>
-    </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A41" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>74</v>
       </c>
+      <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
@@ -2354,15 +2341,15 @@
       <c r="AQ41" s="5"/>
       <c r="AR41" s="5"/>
       <c r="AS41" s="5"/>
-      <c r="AT41" s="5"/>
-    </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A42" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
@@ -2389,15 +2376,15 @@
       <c r="AQ42" s="5"/>
       <c r="AR42" s="5"/>
       <c r="AS42" s="5"/>
-      <c r="AT42" s="5"/>
-    </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.6">
+      <c r="A43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>78</v>
       </c>
+      <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
@@ -2424,11 +2411,10 @@
       <c r="AQ43" s="5"/>
       <c r="AR43" s="5"/>
       <c r="AS43" s="5"/>
-      <c r="AT43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverable 2/Deliverable2/Sequence of Activities.xlsx
+++ b/Deliverable 2/Deliverable2/Sequence of Activities.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odnan\Documents\GitHub\projectsGroup3\Deliverable 2\Deliverable2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPC_ESEIAAT\MASTER\1B\220310 - DIRECCIÓ DE PROJECTES D'AERONAUS I VEHICLES AEROESPACIALS\MAIN PROJECT\projectsGroup3\Deliverable 2\Deliverable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="16002" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25608" windowHeight="16008"/>
   </bookViews>
   <sheets>
     <sheet name="PRECEDENCES" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="139">
   <si>
     <t>TASK LIST</t>
   </si>
@@ -295,13 +295,160 @@
   </si>
   <si>
     <t>3.1.</t>
+  </si>
+  <si>
+    <t>Quick Off meeting</t>
+  </si>
+  <si>
+    <t>SS: Start-to-Start</t>
+  </si>
+  <si>
+    <t>SF: Start-to-Finish</t>
+  </si>
+  <si>
+    <t>FF: Finish to finish</t>
+  </si>
+  <si>
+    <t>FS: Finish-to-start</t>
+  </si>
+  <si>
+    <t>SS-0</t>
+  </si>
+  <si>
+    <t>FS-1.1,2.2</t>
+  </si>
+  <si>
+    <t>FS-2.1.1</t>
+  </si>
+  <si>
+    <t>FS-1.1,</t>
+  </si>
+  <si>
+    <t>FS-1.1</t>
+  </si>
+  <si>
+    <t>SF-3.1</t>
+  </si>
+  <si>
+    <t>SF-4.2</t>
+  </si>
+  <si>
+    <t>SF-5.1</t>
+  </si>
+  <si>
+    <t>SF-5.5</t>
+  </si>
+  <si>
+    <t>SF-3.2</t>
+  </si>
+  <si>
+    <t>SF-3.3</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>MILESTONES</t>
+  </si>
+  <si>
+    <t>Project management plan</t>
+  </si>
+  <si>
+    <t>Business plan</t>
+  </si>
+  <si>
+    <t>Communication plan</t>
+  </si>
+  <si>
+    <t>State of the art report</t>
+  </si>
+  <si>
+    <t>Payload preliminary desing</t>
+  </si>
+  <si>
+    <t>Modular system preliminary design</t>
+  </si>
+  <si>
+    <t>Interaction platform preliminary design</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>Mid-term project report</t>
+  </si>
+  <si>
+    <t>Prototype manufacturing</t>
+  </si>
+  <si>
+    <t>Individual systems testing</t>
+  </si>
+  <si>
+    <t>Full system testing</t>
+  </si>
+  <si>
+    <t>Final report</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>FF-1.1</t>
+  </si>
+  <si>
+    <t>SF-4.1.1</t>
+  </si>
+  <si>
+    <t>SF-4.1.2</t>
+  </si>
+  <si>
+    <t>SF-4.1.3</t>
+  </si>
+  <si>
+    <t>SF-5.2,5.3,5.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -321,6 +468,13 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -388,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -415,6 +569,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -731,49 +888,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.84765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.84765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -781,8 +951,14 @@
         <v>5</v>
       </c>
       <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -792,8 +968,14 @@
       <c r="C5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -803,8 +985,11 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -812,19 +997,25 @@
         <v>11</v>
       </c>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -833,7 +1024,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -842,7 +1033,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -852,8 +1043,11 @@
       <c r="C11" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -863,19 +1057,25 @@
       <c r="C12" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>88</v>
       </c>
@@ -885,8 +1085,11 @@
       <c r="C14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -896,8 +1099,11 @@
       <c r="C15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -906,7 +1112,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>89</v>
       </c>
@@ -916,8 +1122,11 @@
       <c r="C17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
@@ -927,8 +1136,11 @@
       <c r="C18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
@@ -938,8 +1150,11 @@
       <c r="C19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -948,7 +1163,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
@@ -957,7 +1172,7 @@
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -967,8 +1182,11 @@
       <c r="C22" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -978,8 +1196,11 @@
       <c r="C23" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -989,8 +1210,11 @@
       <c r="C24" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>44</v>
       </c>
@@ -999,7 +1223,7 @@
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -1009,8 +1233,11 @@
       <c r="C26" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -1020,8 +1247,11 @@
       <c r="C27" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -1031,8 +1261,11 @@
       <c r="C28" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>5</v>
       </c>
@@ -1041,7 +1274,7 @@
       </c>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>53</v>
       </c>
@@ -1051,8 +1284,11 @@
       <c r="C30" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>55</v>
       </c>
@@ -1062,8 +1298,11 @@
       <c r="C31" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>57</v>
       </c>
@@ -1073,8 +1312,11 @@
       <c r="C32" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>59</v>
       </c>
@@ -1084,8 +1326,11 @@
       <c r="C33" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>61</v>
       </c>
@@ -1095,8 +1340,11 @@
       <c r="C34" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>63</v>
       </c>
@@ -1106,8 +1354,11 @@
       <c r="C35" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>6</v>
       </c>
@@ -1116,7 +1367,7 @@
       </c>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>66</v>
       </c>
@@ -1126,8 +1377,11 @@
       <c r="C37" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>68</v>
       </c>
@@ -1137,8 +1391,11 @@
       <c r="C38" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>7</v>
       </c>
@@ -1147,53 +1404,206 @@
       </c>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="14" t="s">
         <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1201,21 +1611,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.94921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="136" width="2.84765625" customWidth="1"/>
+    <col min="2" max="2" width="43.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="136" width="2.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>84</v>
       </c>
@@ -1224,7 +1634,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1232,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1243,7 +1653,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1302,7 +1712,7 @@
       <c r="BA4" s="11"/>
       <c r="BB4" s="11"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1361,7 +1771,7 @@
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1830,7 @@
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1428,7 +1838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -1484,7 +1894,7 @@
       <c r="BA8" s="5"/>
       <c r="BB8" s="5"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1543,7 +1953,7 @@
       <c r="BA9" s="7"/>
       <c r="BB9" s="7"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -1551,7 +1961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1562,7 +1972,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1609,7 +2019,7 @@
       <c r="BA12" s="5"/>
       <c r="BB12" s="5"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1620,7 +2030,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>88</v>
       </c>
@@ -1679,7 +2089,7 @@
       <c r="BA14" s="5"/>
       <c r="BB14" s="5"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -1738,7 +2148,7 @@
       <c r="BA15" s="5"/>
       <c r="BB15" s="5"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1797,7 +2207,7 @@
       <c r="BA16" s="7"/>
       <c r="BB16" s="7"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>89</v>
       </c>
@@ -1808,7 +2218,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
@@ -1819,7 +2229,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
@@ -1830,7 +2240,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1889,7 +2299,7 @@
       <c r="BA20" s="7"/>
       <c r="BB20" s="7"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1897,7 +2307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1908,7 +2318,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1919,7 +2329,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -1930,7 +2340,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>44</v>
       </c>
@@ -1938,7 +2348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,7 +2359,7 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -1960,7 +2370,7 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -1971,7 +2381,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>5</v>
       </c>
@@ -2030,7 +2440,7 @@
       <c r="BA29" s="7"/>
       <c r="BB29" s="7"/>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>53</v>
       </c>
@@ -2041,7 +2451,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>55</v>
       </c>
@@ -2052,7 +2462,7 @@
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>57</v>
       </c>
@@ -2063,7 +2473,7 @@
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>59</v>
       </c>
@@ -2074,7 +2484,7 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>61</v>
       </c>
@@ -2085,7 +2495,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>63</v>
       </c>
@@ -2096,7 +2506,7 @@
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>6</v>
       </c>
@@ -2155,7 +2565,7 @@
       <c r="BA36" s="7"/>
       <c r="BB36" s="7"/>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>66</v>
       </c>
@@ -2190,7 +2600,7 @@
       <c r="AR37" s="5"/>
       <c r="AS37" s="5"/>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>68</v>
       </c>
@@ -2213,7 +2623,7 @@
       <c r="AR38" s="5"/>
       <c r="AS38" s="5"/>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>7</v>
       </c>
@@ -2272,7 +2682,7 @@
       <c r="BA39" s="7"/>
       <c r="BB39" s="7"/>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
@@ -2307,7 +2717,7 @@
       <c r="AR40" s="5"/>
       <c r="AS40" s="5"/>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>73</v>
       </c>
@@ -2342,7 +2752,7 @@
       <c r="AR41" s="5"/>
       <c r="AS41" s="5"/>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>75</v>
       </c>
@@ -2377,7 +2787,7 @@
       <c r="AR42" s="5"/>
       <c r="AS42" s="5"/>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>77</v>
       </c>
